--- a/商科賽/訓練內容.xlsx
+++ b/商科賽/訓練內容.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\訓練素材\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Practise\商科賽\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0DF345-CF46-4DD6-9FA7-BC1A3D3E6094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA8083D-46F4-4962-B86D-C421E7998D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,6 @@
     <t>台北軟體設計</t>
   </si>
   <si>
-    <t>國際標準書號 ISBN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>字串的處理(數字運算式)[含+、-、*]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,10 +80,6 @@
   </si>
   <si>
     <t>撲克牌遊戲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>計算兩人之間共同朋友的數量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -109,6 +101,12 @@
   <si>
     <t>文章的用字統計</t>
     <phoneticPr fontId="2" type="noConversion" alignment="distributed"/>
+  </si>
+  <si>
+    <t>國際標準書號 ISBN</t>
+  </si>
+  <si>
+    <t>計算兩人之間共同朋友的數量</t>
   </si>
 </sst>
 </file>
@@ -116,15 +114,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="178" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="166" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
+      <name val="Tw Cen MT"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,7 +134,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="微軟正黑體"/>
+      <name val="Tw Cen MT"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -151,7 +149,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="微軟正黑體"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -165,14 +163,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="微軟正黑體"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -180,7 +178,7 @@
     <font>
       <sz val="8"/>
       <color rgb="FFBDC1C6"/>
-      <name val="微軟正黑體"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -216,7 +214,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -227,16 +225,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="千分位" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,21 +524,21 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="5.8984375" customWidth="1"/>
-    <col min="3" max="3" width="5.09765625" customWidth="1"/>
-    <col min="4" max="4" width="39.3984375" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" customWidth="1"/>
-    <col min="6" max="6" width="16.296875" customWidth="1"/>
-    <col min="7" max="7" width="8.09765625" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,14 +552,14 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -572,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4">
         <v>45176</v>
@@ -581,7 +579,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="13.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -592,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4">
         <v>45176</v>
@@ -601,7 +599,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -612,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4">
         <v>45175</v>
@@ -621,7 +619,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -632,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4">
         <v>45176</v>
@@ -643,7 +641,7 @@
       <c r="G5" s="8"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -654,7 +652,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4">
         <v>45174</v>
@@ -663,7 +661,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -674,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4">
         <v>45175</v>
@@ -683,7 +681,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -694,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4">
         <v>45177</v>
@@ -703,7 +701,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -714,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4">
         <v>45175</v>
@@ -723,7 +721,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -734,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4">
         <v>45173</v>
@@ -743,7 +741,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -754,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4">
         <v>45177</v>
@@ -763,7 +761,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -774,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="4">
         <v>45173</v>
@@ -783,7 +781,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -794,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="4">
         <v>45178</v>
@@ -803,7 +801,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="13.8" customHeight="1">
       <c r="D14" s="3"/>
     </row>
   </sheetData>
